--- a/data/trans_orig/Q57-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Clase-trans_orig.xlsx
@@ -614,7 +614,7 @@
         <v>7.897404491666145</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.260323740631344</v>
+        <v>8.260323740631343</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.909951017034507</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.771739535862389</v>
+        <v>7.757214046990409</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.99377135132996</v>
+        <v>8.000006019120034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.742193981128858</v>
+        <v>7.750231682486483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.148423707257205</v>
+        <v>8.140534429204935</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.806882438330593</v>
+        <v>7.810072497792145</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.101806601631944</v>
+        <v>8.104274227047414</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.058602586423513</v>
+        <v>8.056525216262726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.270326445628353</v>
+        <v>8.265776505830063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.045285952946276</v>
+        <v>8.040604115008623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.36499038139323</v>
+        <v>8.376557181342164</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.004152569254495</v>
+        <v>8.018177635917841</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.27764853277049</v>
+        <v>8.287447406516296</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>7.718630608500639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.136018689907235</v>
+        <v>8.136018689907234</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.806480480064039</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.225815521124076</v>
+        <v>8.225815521124073</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.73544529893463</v>
+        <v>7.737625309652038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.156399622363613</v>
+        <v>8.16048874768696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.57443523768261</v>
+        <v>7.567001234848785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.007559881898116</v>
+        <v>8.014198375615516</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.698144752934053</v>
+        <v>7.710508065697854</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.133848730235751</v>
+        <v>8.124196676874345</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.028904659385276</v>
+        <v>8.03538054250423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.420842991065294</v>
+        <v>8.429111395485624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.845188904091319</v>
+        <v>7.853067380673859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.254791681130367</v>
+        <v>8.264942751041662</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.901278165531031</v>
+        <v>7.903584271854335</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.306646138906661</v>
+        <v>8.309141361299101</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.388585703295697</v>
+        <v>7.392899377013505</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.955313270686442</v>
+        <v>7.984312923346529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.803368563033468</v>
+        <v>6.808541081956366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.634056084475095</v>
+        <v>7.641783872315915</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.314259426897242</v>
+        <v>7.303342137593265</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.927767459886939</v>
+        <v>7.921958993484233</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.676339172080189</v>
+        <v>7.682712001780508</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.293124551235872</v>
+        <v>8.291134111964723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.412716061804558</v>
+        <v>7.409617080515719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.047515826569214</v>
+        <v>8.053585165583378</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.587030600331347</v>
+        <v>7.574937905479549</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.195527718782008</v>
+        <v>8.186169338366156</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +854,7 @@
         <v>7.632001929091346</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>8.065246331498612</v>
+        <v>8.065246331498615</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.596901406684923</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.547806658978201</v>
+        <v>7.545001762698081</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.951336489552509</v>
+        <v>7.959131413812655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.483974637069351</v>
+        <v>7.471592498879984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.978435468138996</v>
+        <v>7.980562554646999</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.537175930600776</v>
+        <v>7.543213634929442</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.990821988124305</v>
+        <v>7.99350496771726</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.723927907014687</v>
+        <v>7.717526211217285</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.172730919859859</v>
+        <v>8.169518859267454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.727258888501115</v>
+        <v>7.710555595421692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.165774568306402</v>
+        <v>8.171551974682062</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.678383093948232</v>
+        <v>7.689707622653197</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.140254823413949</v>
+        <v>8.142534050911625</v>
       </c>
     </row>
     <row r="16">
@@ -936,7 +936,7 @@
         <v>7.33321788470533</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.859140778640431</v>
+        <v>7.859140778640429</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.106298223206822</v>
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.187274595119876</v>
+        <v>7.179573544683819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.681241488177601</v>
+        <v>7.683067478570922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.967783561402463</v>
+        <v>6.976577916434462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.344571659270013</v>
+        <v>7.345444009549558</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.109303775533372</v>
+        <v>7.102478611583795</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.526830456189838</v>
+        <v>7.53188014725108</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.462821748190926</v>
+        <v>7.457513416341303</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.011537662442912</v>
+        <v>8.019873210857801</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.244410687142661</v>
+        <v>7.243307938558742</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.583664204606565</v>
+        <v>7.586548881771581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.300126012068447</v>
+        <v>7.302311547629053</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.719384986279515</v>
+        <v>7.72585713319799</v>
       </c>
     </row>
     <row r="19">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>8.187654625015121</v>
+        <v>8.210095948059152</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.533249369569669</v>
+        <v>8.500867095312429</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.267595219986807</v>
+        <v>7.266516660994128</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.675162762920634</v>
+        <v>7.68126654722997</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>7.488497250304636</v>
+        <v>7.478631062749117</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>7.89793314559893</v>
+        <v>7.897018382274013</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.471391883949137</v>
+        <v>8.48359164591889</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.9585756918722</v>
+        <v>8.940451287843025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.4853855934194</v>
+        <v>7.494581927394687</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.920804178258456</v>
+        <v>7.929130189101538</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.686110329792551</v>
+        <v>7.681898671896001</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>8.125353030731743</v>
+        <v>8.117104398254373</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1100,7 @@
         <v>7.688191010416423</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>8.13524148954675</v>
+        <v>8.135241489546749</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>7.448910550759703</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.631812124885986</v>
+        <v>7.636466831729932</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.07608038603774</v>
+        <v>8.078493710991703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.389239964419521</v>
+        <v>7.395051016623061</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.846367110789846</v>
+        <v>7.841352296551934</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.52566269429889</v>
+        <v>7.525597259822016</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.971659578097997</v>
+        <v>7.972937394916707</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.737408530526397</v>
+        <v>7.744536155653162</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.200825155144162</v>
+        <v>8.19980669262849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.510932445973509</v>
+        <v>7.5030441400245</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.943555084210583</v>
+        <v>7.941476910012086</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.605908034129301</v>
+        <v>7.607781064665134</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.047854414381122</v>
+        <v>8.051546285256956</v>
       </c>
     </row>
     <row r="25">
